--- a/Assets/0_Multi/Resources/Data/UnitNameData.xlsx
+++ b/Assets/0_Multi/Resources/Data/UnitNameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\Current Project\1.ColorRandomDefense\Assets\0_Multi\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10488A71-0A5B-4E23-90F3-AB7FB9361560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53B65CF-1D63-49AC-B865-DA4BFF1E7EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,7 +682,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
